--- a/backup/hokhau.xlsx
+++ b/backup/hokhau.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>IDHoKhau</t>
   </si>
@@ -41,7 +41,25 @@
     <t>1/1/0001 12:00:00 AM</t>
   </si>
   <si>
-    <t>(Chưa nhập)</t>
+    <t>03767546477</t>
+  </si>
+  <si>
+    <t>048346473</t>
+  </si>
+  <si>
+    <t>0932483294</t>
+  </si>
+  <si>
+    <t>032848234</t>
+  </si>
+  <si>
+    <t>0376535353</t>
+  </si>
+  <si>
+    <t>038383833</t>
+  </si>
+  <si>
+    <t>0123456789</t>
   </si>
   <si>
     <t>https://www.e-iceblue.cn/Buy/Spire.XLS.JAVA.html</t>
@@ -551,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -559,9 +577,9 @@
   <cols>
     <col min="1" max="1" width="9.57421875" widthPt="50.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.8515625" widthPt="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.421875" widthPt="49.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.421875" widthPt="54.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.57421875" widthPt="102.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.57421875" widthPt="60.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28125" widthPt="64.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75">
@@ -586,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>41068</v>
+        <v>41069</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -603,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>41798</v>
@@ -612,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75">
@@ -629,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75">
@@ -642,11 +660,96 @@
       <c r="C5" s="1">
         <v>42777</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45275</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45287</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45276</v>
+      </c>
+      <c r="D7" s="1">
         <v>45278</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45276</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45286</v>
+      </c>
+      <c r="E8">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45268</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45286</v>
+      </c>
+      <c r="E9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45281</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45287</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -697,42 +800,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
